--- a/data/standard_colorink.xlsx
+++ b/data/standard_colorink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088461B8-9993-9449-A73E-B5ECD42339DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF64B0A-85E8-A54F-828E-E78A8D357C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F71D28C4-C59E-C54C-8114-2122DB680624}"/>
   </bookViews>
@@ -155,7 +155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>colorink</c:v>
+                  <c:v>standard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,10 +184,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$17</c:f>
+              <c:f>Tabelle1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -235,16 +235,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$17</c:f>
+              <c:f>Tabelle1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -267,7 +273,7 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>76</c:v>
@@ -282,7 +288,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>86</c:v>
@@ -292,6 +298,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,20 +1396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35125F77-0292-9348-AEBB-5E77477DBF87}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1461,7 +1473,7 @@
         <v>62</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1501,7 +1513,7 @@
         <v>64</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,6 +1538,22 @@
       </c>
       <c r="B17">
         <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/standard_colorink.xlsx
+++ b/data/standard_colorink.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF64B0A-85E8-A54F-828E-E78A8D357C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB96F3-E586-5548-99C1-6DF158DEABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F71D28C4-C59E-C54C-8114-2122DB680624}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,13 +49,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1402,9 +1422,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>84</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>86</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1436,7 +1456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>78</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>83</v>
       </c>
@@ -1452,7 +1472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>96</v>
       </c>
@@ -1460,7 +1480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>86</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>62</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>74</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1492,7 +1512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1500,7 +1520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>93</v>
       </c>
@@ -1508,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>64</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>91</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>75</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -1540,7 +1560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>70</v>
       </c>
@@ -1548,7 +1568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>65</v>
       </c>
@@ -1560,4 +1580,118 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455465F6-D96E-C841-934A-341AD93B72F4}">
+  <dimension ref="A2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/standard_colorink.xlsx
+++ b/data/standard_colorink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB96F3-E586-5548-99C1-6DF158DEABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDCD0B-ACE0-8F4A-94C1-0275C490DB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F71D28C4-C59E-C54C-8114-2122DB680624}"/>
   </bookViews>
